--- a/biology/Botanique/Cymbopogon_winterianus/Cymbopogon_winterianus.xlsx
+++ b/biology/Botanique/Cymbopogon_winterianus/Cymbopogon_winterianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Citronnelle de Java
-La Citronnelle de Java (Cymbopogon winterianus) est une plante aromatique vivace de la famille des Poacées, originaire de l'ouest de la Malésie. Cette plante est utilisée dans les produits de parfumerie et les cosmétiques, source d'huile de citronnelle[1],[2].
+La Citronnelle de Java (Cymbopogon winterianus) est une plante aromatique vivace de la famille des Poacées, originaire de l'ouest de la Malésie. Cette plante est utilisée dans les produits de parfumerie et les cosmétiques, source d'huile de citronnelle,.
 </t>
         </is>
       </c>
